--- a/final_opl_results.xlsx
+++ b/final_opl_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="293">
   <si>
     <t>location_id</t>
   </si>
@@ -25,7 +25,7 @@
     <t>influence on crops</t>
   </si>
   <si>
-    <t>area in dunam used</t>
+    <t>area in dunam usedmachoz</t>
   </si>
   <si>
     <t>OBJECTID</t>
@@ -37,6 +37,9 @@
     <t>Machoz</t>
   </si>
   <si>
+    <t>eshkol</t>
+  </si>
+  <si>
     <t>Potential revenue from crops before PV, mln NIS</t>
   </si>
   <si>
@@ -49,12 +52,18 @@
     <t>0.07</t>
   </si>
   <si>
+    <t>0.65</t>
+  </si>
+  <si>
     <t>0.38</t>
   </si>
   <si>
     <t>1.67</t>
   </si>
   <si>
+    <t>1.01</t>
+  </si>
+  <si>
     <t>19.38</t>
   </si>
   <si>
@@ -64,46 +73,85 @@
     <t>0.62</t>
   </si>
   <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
     <t>2.11</t>
   </si>
   <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
     <t>0.37</t>
   </si>
   <si>
-    <t>1.47</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>0.24</t>
+    <t>0.05</t>
   </si>
   <si>
     <t>0.68</t>
   </si>
   <si>
-    <t>1.07</t>
-  </si>
-  <si>
     <t>2.32</t>
   </si>
   <si>
-    <t>0.78</t>
-  </si>
-  <si>
     <t>1.41</t>
   </si>
   <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>13.08</t>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>4.31</t>
   </si>
   <si>
     <t>0.7</t>
@@ -112,58 +160,70 @@
     <t>0.91</t>
   </si>
   <si>
+    <t>3.93</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
     <t>1.08</t>
   </si>
   <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
     <t>0.55</t>
   </si>
   <si>
     <t>0.14</t>
   </si>
   <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>1.79</t>
+  </si>
+  <si>
     <t>0.12</t>
   </si>
   <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>4.7</t>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>1.33</t>
   </si>
   <si>
     <t>4.4</t>
   </si>
   <si>
-    <t>1.7</t>
+    <t>0.11</t>
   </si>
   <si>
     <t>0.59</t>
   </si>
   <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>2.51</t>
-  </si>
-  <si>
     <t>0.75</t>
   </si>
   <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
     <t>0.25</t>
   </si>
   <si>
     <t>2.63</t>
   </si>
   <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>1.31</t>
-  </si>
-  <si>
-    <t>0.26</t>
+    <t>0.64</t>
   </si>
   <si>
     <t>1.09</t>
@@ -172,49 +232,73 @@
     <t>3.75</t>
   </si>
   <si>
-    <t>0.05</t>
-  </si>
-  <si>
     <t>0.02</t>
   </si>
   <si>
-    <t>1.87</t>
-  </si>
-  <si>
-    <t>0.4</t>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.43</t>
   </si>
   <si>
     <t>6.99</t>
   </si>
   <si>
+    <t>10.26</t>
+  </si>
+  <si>
     <t>1.42</t>
   </si>
   <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
     <t>0.99</t>
   </si>
   <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>14.48</t>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>1.86</t>
+  </si>
+  <si>
+    <t>3.28</t>
   </si>
   <si>
     <t>0.69</t>
   </si>
   <si>
+    <t>0.53</t>
+  </si>
+  <si>
     <t>0.82</t>
   </si>
   <si>
+    <t>0.83</t>
+  </si>
+  <si>
     <t>14.54</t>
   </si>
   <si>
-    <t>0.79</t>
+    <t>1.96</t>
+  </si>
+  <si>
+    <t>0.04</t>
   </si>
   <si>
     <t>4.26</t>
   </si>
   <si>
-    <t>10.22</t>
+    <t>1.38</t>
   </si>
   <si>
     <t>2.24</t>
@@ -235,10 +319,7 @@
     <t>1.12</t>
   </si>
   <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>17.4</t>
+    <t>0.27</t>
   </si>
   <si>
     <t>1</t>
@@ -265,6 +346,9 @@
     <t>0.64225463</t>
   </si>
   <si>
+    <t>6.3</t>
+  </si>
+  <si>
     <t>0.85371174</t>
   </si>
   <si>
@@ -274,6 +358,12 @@
     <t>15.4</t>
   </si>
   <si>
+    <t>0.86341871</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
     <t>180</t>
   </si>
   <si>
@@ -283,36 +373,75 @@
     <t>5.62169597</t>
   </si>
   <si>
-    <t>0.6</t>
+    <t>7.29211573</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>69.5</t>
+  </si>
+  <si>
+    <t>2.69365929</t>
+  </si>
+  <si>
+    <t>11.58188131</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>3.4</t>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>6.1513182</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>21.6</t>
+  </si>
+  <si>
+    <t>4.93871193</t>
   </si>
   <si>
     <t>13.1</t>
   </si>
   <si>
-    <t>4.8</t>
+    <t>10.07919559</t>
   </si>
   <si>
     <t>0.5435032</t>
   </si>
   <si>
+    <t>15.8</t>
+  </si>
+  <si>
     <t>10.1</t>
   </si>
   <si>
+    <t>21.06903003</t>
+  </si>
+  <si>
     <t>2.2</t>
   </si>
   <si>
+    <t>3.49842913</t>
+  </si>
+  <si>
+    <t>0.4764851</t>
+  </si>
+  <si>
     <t>6.24484175</t>
   </si>
   <si>
-    <t>0.55323396</t>
-  </si>
-  <si>
     <t>9.88423453</t>
   </si>
   <si>
@@ -325,10 +454,13 @@
     <t>13</t>
   </si>
   <si>
+    <t>9.0523811</t>
+  </si>
+  <si>
     <t>1.47938482</t>
   </si>
   <si>
-    <t>120.2</t>
+    <t>40.44108014</t>
   </si>
   <si>
     <t>6.2</t>
@@ -337,46 +469,76 @@
     <t>8.4</t>
   </si>
   <si>
+    <t>36.7</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
     <t>0.54803103</t>
   </si>
   <si>
     <t>9.7</t>
   </si>
   <si>
+    <t>1.6026554</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>5.1</t>
   </si>
   <si>
     <t>1.3</t>
   </si>
   <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>0.6412014</t>
+    <t>1.74533718</t>
+  </si>
+  <si>
+    <t>16.7</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>37.7823148</t>
+  </si>
+  <si>
+    <t>12.55226914</t>
   </si>
   <si>
     <t>40.61100942</t>
   </si>
   <si>
-    <t>15.7</t>
+    <t>1.02573822</t>
+  </si>
+  <si>
+    <t>1.95162488</t>
   </si>
   <si>
     <t>5.42169075</t>
   </si>
   <si>
+    <t>7.13551345</t>
+  </si>
+  <si>
     <t>5.8</t>
   </si>
   <si>
-    <t>23.2</t>
-  </si>
-  <si>
     <t>1.10899231</t>
   </si>
   <si>
-    <t>6.96197107</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>8.56882042</t>
+  </si>
+  <si>
+    <t>5.5</t>
   </si>
   <si>
     <t>2.3</t>
@@ -385,13 +547,7 @@
     <t>24.1</t>
   </si>
   <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>2.4</t>
+    <t>6</t>
   </si>
   <si>
     <t>33.5</t>
@@ -403,43 +559,76 @@
     <t>0.1</t>
   </si>
   <si>
-    <t>17.3</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>12.1</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1.22343978</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>4.06411577</t>
   </si>
   <si>
     <t>61.6</t>
   </si>
   <si>
+    <t>96.4</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>8.8</t>
   </si>
   <si>
+    <t>2.05671249</t>
+  </si>
+  <si>
+    <t>8.0225854</t>
+  </si>
+  <si>
     <t>9.34990105</t>
   </si>
   <si>
-    <t>134.5</t>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>17.46109807</t>
+  </si>
+  <si>
+    <t>30.95374262</t>
   </si>
   <si>
     <t>6.4</t>
   </si>
   <si>
+    <t>2.3098616</t>
+  </si>
+  <si>
+    <t>5.07407424</t>
+  </si>
+  <si>
     <t>7.6</t>
   </si>
   <si>
+    <t>7.74296481</t>
+  </si>
+  <si>
     <t>134.3</t>
   </si>
   <si>
-    <t>7.3</t>
+    <t>18.38437801</t>
   </si>
   <si>
     <t>38.7</t>
   </si>
   <si>
-    <t>94.9</t>
+    <t>13.3</t>
   </si>
   <si>
     <t>20.7</t>
@@ -460,10 +649,10 @@
     <t>0.63136682</t>
   </si>
   <si>
-    <t>4.89638416</t>
-  </si>
-  <si>
-    <t>161.7</t>
+    <t>5.99011178</t>
+  </si>
+  <si>
+    <t>2.53285339</t>
   </si>
   <si>
     <t>ביר אל-מכסור</t>
@@ -472,6 +661,9 @@
     <t>סח'נין</t>
   </si>
   <si>
+    <t>דמיידה</t>
+  </si>
+  <si>
     <t>כפר ביל"ו</t>
   </si>
   <si>
@@ -481,6 +673,12 @@
     <t>תלמי יוסף</t>
   </si>
   <si>
+    <t>עין אל-אסד</t>
+  </si>
+  <si>
+    <t>לכיש</t>
+  </si>
+  <si>
     <t>רעים</t>
   </si>
   <si>
@@ -490,33 +688,57 @@
     <t>עין יהב</t>
   </si>
   <si>
+    <t>כפר מרדכי</t>
+  </si>
+  <si>
+    <t>בית ג'ן</t>
+  </si>
+  <si>
+    <t>שדה ניצן</t>
+  </si>
+  <si>
+    <t>בית קמה</t>
+  </si>
+  <si>
     <t>ערערה</t>
   </si>
   <si>
     <t>צופר</t>
   </si>
   <si>
-    <t>דריג'את</t>
+    <t>שלווה</t>
+  </si>
+  <si>
+    <t>ירושלים</t>
+  </si>
+  <si>
+    <t>תירוש</t>
+  </si>
+  <si>
+    <t>כפר קאסם</t>
   </si>
   <si>
     <t>פארן</t>
   </si>
   <si>
-    <t>מסעדה</t>
+    <t>בניה</t>
   </si>
   <si>
     <t>משמרת</t>
   </si>
   <si>
+    <t>יד מרדכי</t>
+  </si>
+  <si>
     <t>נתיב העשרה</t>
   </si>
   <si>
+    <t>ניר צבי</t>
+  </si>
+  <si>
     <t>שדי אברהם</t>
   </si>
   <si>
-    <t>בענה</t>
-  </si>
-  <si>
     <t>עידן</t>
   </si>
   <si>
@@ -526,43 +748,58 @@
     <t>נטעים</t>
   </si>
   <si>
-    <t>תל שבע</t>
+    <t>קבוצת יבנה</t>
   </si>
   <si>
     <t>תלמי אליהו</t>
   </si>
   <si>
+    <t>שובה</t>
+  </si>
+  <si>
     <t>עין הבשור</t>
   </si>
   <si>
+    <t>מירון</t>
+  </si>
+  <si>
     <t>ניצני סיני</t>
   </si>
   <si>
-    <t>בית ג'ן</t>
-  </si>
-  <si>
-    <t>שדה ניצן</t>
-  </si>
-  <si>
-    <t>שחר</t>
-  </si>
-  <si>
-    <t>עין חצבה</t>
-  </si>
-  <si>
-    <t>מג'ד אל-כרום</t>
-  </si>
-  <si>
-    <t>אל-רום</t>
+    <t>חניאל</t>
+  </si>
+  <si>
+    <t>תל מונד</t>
+  </si>
+  <si>
+    <t>נגבה</t>
+  </si>
+  <si>
+    <t>זמר</t>
+  </si>
+  <si>
+    <t>תקומה</t>
+  </si>
+  <si>
+    <t>תפרח</t>
+  </si>
+  <si>
+    <t>ניר בנים</t>
+  </si>
+  <si>
+    <t>כפר רות</t>
   </si>
   <si>
     <t>נבטים</t>
   </si>
   <si>
-    <t>דקל</t>
-  </si>
-  <si>
-    <t>שוקדה</t>
+    <t>כפר מונש</t>
+  </si>
+  <si>
+    <t>בית חנן</t>
+  </si>
+  <si>
+    <t>אדירים</t>
   </si>
   <si>
     <t>אוהד</t>
@@ -571,22 +808,19 @@
     <t>מיתר</t>
   </si>
   <si>
-    <t>הודיה</t>
+    <t>חלץ</t>
+  </si>
+  <si>
+    <t>עמיעוז</t>
   </si>
   <si>
     <t>ערד</t>
   </si>
   <si>
-    <t>עמיעוז</t>
-  </si>
-  <si>
-    <t>עין אל-אסד</t>
-  </si>
-  <si>
     <t>ניר יצחק</t>
   </si>
   <si>
-    <t>עזריקם</t>
+    <t>כפר אביב</t>
   </si>
   <si>
     <t>יטבתה</t>
@@ -595,24 +829,45 @@
     <t>באר שבע</t>
   </si>
   <si>
+    <t>אום בטין</t>
+  </si>
+  <si>
+    <t>דייר חנא</t>
+  </si>
+  <si>
+    <t>בית חלקיה</t>
+  </si>
+  <si>
+    <t>בית שקמה</t>
+  </si>
+  <si>
     <t>חולית</t>
   </si>
   <si>
     <t>יאנוח-ג'ת</t>
   </si>
   <si>
+    <t>סאג'ור</t>
+  </si>
+  <si>
     <t>אודם</t>
   </si>
   <si>
+    <t>ניר ישראל</t>
+  </si>
+  <si>
     <t>נירים</t>
   </si>
   <si>
-    <t>רנן</t>
+    <t>גיאה</t>
   </si>
   <si>
     <t>רביבים</t>
   </si>
   <si>
+    <t>בית אלפא</t>
+  </si>
+  <si>
     <t>כמהין</t>
   </si>
   <si>
@@ -622,7 +877,7 @@
     <t>אבו תלול</t>
   </si>
   <si>
-    <t>פטיש</t>
+    <t>גן שורק</t>
   </si>
   <si>
     <t>North</t>
@@ -635,6 +890,9 @@
   </si>
   <si>
     <t>Haifa</t>
+  </si>
+  <si>
+    <t>Jerusalem</t>
   </si>
 </sst>
 </file>
@@ -992,13 +1250,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:K116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,2501 +1284,4033 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="H2" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="I2">
-        <v>0.0064</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>0.0064</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>0.0064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="F3">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="H3" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="I3">
-        <v>0.005138037040000001</v>
+        <v>4</v>
       </c>
       <c r="J3">
         <v>0.005138037040000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>0.005138037040000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="F4">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="H4" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="I4">
-        <v>0.02048908176</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.0211037542128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>0.0504</v>
+      </c>
+      <c r="K4">
+        <v>0.0504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="F5">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="H5" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>0.02048908176</v>
+      </c>
+      <c r="K5">
+        <v>0.0211037542128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6">
-        <v>34</v>
-      </c>
       <c r="G6" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="H6" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I6">
-        <v>0.154</v>
+        <v>7</v>
       </c>
       <c r="J6">
-        <v>0.1694</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F7">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="H7" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I7">
-        <v>0.72</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>0.7488</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>0.154</v>
+      </c>
+      <c r="K7">
+        <v>0.1694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="F8">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="H8" t="s">
-        <v>205</v>
+        <v>288</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>0.00690734968</v>
+      </c>
+      <c r="K8">
+        <v>0.00690734968</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="F9">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="H9" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I9">
-        <v>0.0562169597</v>
+        <v>9</v>
       </c>
       <c r="J9">
-        <v>0.06183865567000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>0.19</v>
+      </c>
+      <c r="K9">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="F10">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="H10" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="I10">
-        <v>0.0048</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>0.0048</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>0.72</v>
+      </c>
+      <c r="K10">
+        <v>0.7488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="F11">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="H11" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I11">
-        <v>0.304</v>
+        <v>8</v>
       </c>
       <c r="J11">
-        <v>0.31312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12">
         <v>91</v>
       </c>
-      <c r="F12">
-        <v>168</v>
-      </c>
       <c r="G12" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="H12" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I12">
-        <v>0.034</v>
+        <v>7</v>
       </c>
       <c r="J12">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>0.0562169597</v>
+      </c>
+      <c r="K12">
+        <v>0.06183865567000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="F13">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="H13" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="I13">
-        <v>0.1834</v>
+        <v>9</v>
       </c>
       <c r="J13">
-        <v>0.20174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>0.17501077752</v>
+      </c>
+      <c r="K13">
+        <v>0.1802611008456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="F14">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="H14" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="I14">
-        <v>0.0384</v>
+        <v>4</v>
       </c>
       <c r="J14">
-        <v>0.0384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>0.0304</v>
+      </c>
+      <c r="K14">
+        <v>0.0304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>216</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="F15">
+        <v>111</v>
+      </c>
+      <c r="G15" t="s">
         <v>220</v>
       </c>
-      <c r="G15" t="s">
-        <v>163</v>
-      </c>
       <c r="H15" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="I15">
-        <v>0.005435031999999999</v>
+        <v>9</v>
       </c>
       <c r="J15">
-        <v>0.005706783599999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>0.114</v>
+      </c>
+      <c r="K15">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>227</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="F16">
-        <v>231</v>
+        <v>118</v>
       </c>
       <c r="G16" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="H16" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>0.018</v>
+      </c>
+      <c r="K16">
+        <v>0.0198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>230</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="F17">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="G17" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c r="H17" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>0.695</v>
+      </c>
+      <c r="K17">
+        <v>0.7645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>254</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="F18">
-        <v>258</v>
+        <v>142</v>
       </c>
       <c r="G18" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="H18" t="s">
-        <v>205</v>
+        <v>288</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>0.02154927432</v>
+      </c>
+      <c r="K18">
+        <v>0.02154927432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="F19">
-        <v>274</v>
+        <v>143</v>
       </c>
       <c r="G19" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="H19" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="I19">
-        <v>0.00442587168</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>0.00442587168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>0.09265505048</v>
+      </c>
+      <c r="K19">
+        <v>0.09265505048</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>288</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
         <v>21</v>
       </c>
-      <c r="E20" t="s">
-        <v>99</v>
-      </c>
       <c r="F20">
-        <v>292</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="H20" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="I20">
-        <v>0.15814775248</v>
+        <v>4</v>
       </c>
       <c r="J20">
-        <v>0.173962527728</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>0.0048</v>
+      </c>
+      <c r="K20">
+        <v>0.0048</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>292</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="F21">
-        <v>296</v>
+        <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="H21" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I21">
-        <v>0.2884</v>
+        <v>8</v>
       </c>
       <c r="J21">
-        <v>0.31724</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>0.304</v>
+      </c>
+      <c r="K21">
+        <v>0.31312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>295</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="F22">
-        <v>299</v>
+        <v>169</v>
       </c>
       <c r="G22" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="H22" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I22">
-        <v>0.07099999999999999</v>
+        <v>5</v>
       </c>
       <c r="J22">
-        <v>0.0781</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>0.0292</v>
+      </c>
+      <c r="K22">
+        <v>0.030368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>296</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="F23">
-        <v>300</v>
+        <v>178</v>
       </c>
       <c r="G23" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="H23" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I23">
-        <v>0.065</v>
+        <v>9</v>
       </c>
       <c r="J23">
-        <v>0.065</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>0.030756591</v>
+      </c>
+      <c r="K23">
+        <v>0.030756591</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>304</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="F24">
-        <v>308</v>
+        <v>186</v>
       </c>
       <c r="G24" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="H24" t="s">
-        <v>204</v>
+        <v>292</v>
       </c>
       <c r="I24">
-        <v>0.0147938482</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>0.01627323302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>0.0112</v>
+      </c>
+      <c r="K24">
+        <v>0.0112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>308</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F25">
-        <v>312</v>
+        <v>190</v>
       </c>
       <c r="G25" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c r="H25" t="s">
-        <v>205</v>
+        <v>292</v>
       </c>
       <c r="I25">
-        <v>1.202</v>
+        <v>4</v>
       </c>
       <c r="J25">
-        <v>1.202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>0.216</v>
+      </c>
+      <c r="K25">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>319</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="F26">
-        <v>323</v>
+        <v>197</v>
       </c>
       <c r="G26" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="H26" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="I26">
-        <v>0.031</v>
+        <v>4</v>
       </c>
       <c r="J26">
-        <v>0.031</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>0.03950969544000001</v>
+      </c>
+      <c r="K26">
+        <v>0.03950969544000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>322</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="F27">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G27" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="H27" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I27">
-        <v>0.08400000000000001</v>
+        <v>8</v>
       </c>
       <c r="J27">
-        <v>0.09240000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>0.1834</v>
+      </c>
+      <c r="K27">
+        <v>0.20174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>347</v>
+        <v>164</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="F28">
-        <v>351</v>
+        <v>209</v>
       </c>
       <c r="G28" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="H28" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="I28">
-        <v>0.0054803103</v>
+        <v>9</v>
       </c>
       <c r="J28">
-        <v>0.006028341330000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>0.0403167823599996</v>
+      </c>
+      <c r="K28">
+        <v>0.04192945365439958</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>365</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="F29">
-        <v>369</v>
+        <v>220</v>
       </c>
       <c r="G29" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="H29" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="I29">
-        <v>0.1163999999999999</v>
+        <v>9</v>
       </c>
       <c r="J29">
-        <v>0.1280399999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>0.005435031999999999</v>
+      </c>
+      <c r="K29">
+        <v>0.005706783599999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>393</v>
+        <v>175</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="F30">
-        <v>397</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
-        <v>167</v>
+        <v>237</v>
       </c>
       <c r="H30" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I30">
-        <v>0.07140000000000001</v>
+        <v>8</v>
       </c>
       <c r="J30">
-        <v>0.07854000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>0.2528</v>
+      </c>
+      <c r="K30">
+        <v>0.2603840000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>400</v>
+        <v>178</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="F31">
-        <v>404</v>
+        <v>231</v>
       </c>
       <c r="G31" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="H31" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="I31">
-        <v>0.0104</v>
+        <v>8</v>
       </c>
       <c r="J31">
-        <v>0.0104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>428</v>
+        <v>180</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="F32">
-        <v>433</v>
+        <v>233</v>
       </c>
       <c r="G32" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="H32" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="I32">
-        <v>0.011</v>
+        <v>9</v>
       </c>
       <c r="J32">
-        <v>0.01155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>0.08427612012000001</v>
+      </c>
+      <c r="K32">
+        <v>0.08764716492480001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>462</v>
+        <v>181</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="F33">
-        <v>468</v>
+        <v>234</v>
       </c>
       <c r="G33" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="H33" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I33">
-        <v>0.036</v>
+        <v>9</v>
       </c>
       <c r="J33">
-        <v>0.0378</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>472</v>
+        <v>184</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="F34">
-        <v>478</v>
+        <v>237</v>
       </c>
       <c r="G34" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="H34" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="I34">
-        <v>0.43</v>
+        <v>9</v>
       </c>
       <c r="J34">
-        <v>0.473</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>479</v>
+        <v>191</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="F35">
-        <v>485</v>
+        <v>247</v>
       </c>
       <c r="G35" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="H35" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="I35">
-        <v>0.0051296112</v>
+        <v>9</v>
       </c>
       <c r="J35">
-        <v>0.0051296112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>0.004764851</v>
+      </c>
+      <c r="K35">
+        <v>0.00500309355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>487</v>
+        <v>199</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="E36" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="F36">
-        <v>493</v>
+        <v>258</v>
       </c>
       <c r="G36" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="H36" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I36">
-        <v>0.48733211304</v>
+        <v>8</v>
       </c>
       <c r="J36">
-        <v>0.536065324344</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>499</v>
+        <v>217</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F37">
-        <v>505</v>
+        <v>282</v>
       </c>
       <c r="G37" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="H37" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="I37">
-        <v>0.1255999999999992</v>
+        <v>9</v>
       </c>
       <c r="J37">
-        <v>0.1255999999999992</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>0.146</v>
+      </c>
+      <c r="K37">
+        <v>0.146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>525</v>
+        <v>226</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="F38">
-        <v>531</v>
+        <v>292</v>
       </c>
       <c r="G38" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="H38" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>0.15814775248</v>
+      </c>
+      <c r="K38">
+        <v>0.173962527728</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>538</v>
+        <v>230</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="F39">
-        <v>544</v>
+        <v>296</v>
       </c>
       <c r="G39" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="H39" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I39">
-        <v>0.08119999999999999</v>
+        <v>8</v>
       </c>
       <c r="J39">
-        <v>0.08932</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>0.2884</v>
+      </c>
+      <c r="K39">
+        <v>0.31724</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>550</v>
+        <v>233</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="F40">
-        <v>557</v>
+        <v>299</v>
       </c>
       <c r="G40" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="H40" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I40">
-        <v>0.5567999999999975</v>
+        <v>7</v>
       </c>
       <c r="J40">
-        <v>0.5735039999999975</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="K40">
+        <v>0.0781</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>553</v>
+        <v>234</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="F41">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="G41" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="H41" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="I41">
-        <v>0.0110899231</v>
+        <v>9</v>
       </c>
       <c r="J41">
-        <v>0.01219891541</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>0.065</v>
+      </c>
+      <c r="K41">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>565</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="F42">
-        <v>572</v>
+        <v>303</v>
       </c>
       <c r="G42" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="H42" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="I42">
-        <v>0.06961971069999999</v>
+        <v>9</v>
       </c>
       <c r="J42">
-        <v>0.07658168176999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>0.090523811</v>
+      </c>
+      <c r="K42">
+        <v>0.09505000155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>591</v>
+        <v>239</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="F43">
-        <v>599</v>
+        <v>308</v>
       </c>
       <c r="G43" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="H43" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="I43">
-        <v>0.023</v>
+        <v>9</v>
       </c>
       <c r="J43">
-        <v>0.02415</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>0.0147938482</v>
+      </c>
+      <c r="K43">
+        <v>0.01627323302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>596</v>
+        <v>250</v>
       </c>
       <c r="C44" t="s">
         <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F44">
-        <v>604</v>
+        <v>321</v>
       </c>
       <c r="G44" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="H44" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="I44">
-        <v>0.241</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>0.241</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>0.1617643205599996</v>
+      </c>
+      <c r="K44">
+        <v>0.1682348933823996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>604</v>
+        <v>252</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E45" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="F45">
-        <v>612</v>
+        <v>323</v>
       </c>
       <c r="G45" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="H45" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="I45">
-        <v>0.008</v>
+        <v>8</v>
       </c>
       <c r="J45">
-        <v>0.008</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>0.031</v>
+      </c>
+      <c r="K45">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>621</v>
+        <v>254</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="F46">
-        <v>630</v>
+        <v>326</v>
       </c>
       <c r="G46" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="H46" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I46">
-        <v>0.0132</v>
+        <v>7</v>
       </c>
       <c r="J46">
-        <v>0.013728</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="K46">
+        <v>0.09240000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>646</v>
+        <v>257</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="F47">
-        <v>656</v>
+        <v>330</v>
       </c>
       <c r="G47" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="H47" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I47">
-        <v>0.116999999999999</v>
+        <v>5</v>
       </c>
       <c r="J47">
-        <v>0.116999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>0.8808000000000001</v>
+      </c>
+      <c r="K47">
+        <v>0.9072240000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>649</v>
+        <v>265</v>
       </c>
       <c r="C48" t="s">
         <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="F48">
-        <v>659</v>
+        <v>343</v>
       </c>
       <c r="G48" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="H48" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="I48">
-        <v>0.0192</v>
+        <v>4</v>
       </c>
       <c r="J48">
-        <v>0.0192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>0.046</v>
+      </c>
+      <c r="K48">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>661</v>
+        <v>271</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="F49">
-        <v>671</v>
+        <v>351</v>
       </c>
       <c r="G49" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="H49" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I49">
-        <v>0.1212</v>
+        <v>8</v>
       </c>
       <c r="J49">
-        <v>0.13332</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>0.0054803103</v>
+      </c>
+      <c r="K49">
+        <v>0.006028341330000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>680</v>
+        <v>283</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F50">
-        <v>690</v>
+        <v>368</v>
       </c>
       <c r="G50" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="H50" t="s">
-        <v>205</v>
+        <v>288</v>
       </c>
       <c r="I50">
-        <v>0.335</v>
+        <v>2</v>
       </c>
       <c r="J50">
-        <v>0.335</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>0.012</v>
+      </c>
+      <c r="K50">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>685</v>
+        <v>284</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="E51" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="F51">
-        <v>695</v>
+        <v>369</v>
       </c>
       <c r="G51" t="s">
-        <v>162</v>
+        <v>249</v>
       </c>
       <c r="H51" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="I51">
-        <v>0.0192</v>
+        <v>8</v>
       </c>
       <c r="J51">
-        <v>0.0192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>0.1163999999999999</v>
+      </c>
+      <c r="K51">
+        <v>0.1280399999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>691</v>
+        <v>285</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E52" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="F52">
-        <v>701</v>
+        <v>372</v>
       </c>
       <c r="G52" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="H52" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="I52">
-        <v>0.00346702552</v>
+        <v>9</v>
       </c>
       <c r="J52">
-        <v>0.00346702552</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>696</v>
+        <v>286</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E53" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F53">
-        <v>706</v>
+        <v>374</v>
       </c>
       <c r="G53" t="s">
-        <v>189</v>
+        <v>251</v>
       </c>
       <c r="H53" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>0.0165</v>
+      </c>
+      <c r="K53">
+        <v>0.0165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>709</v>
+        <v>291</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E54" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="F54">
-        <v>719</v>
+        <v>384</v>
       </c>
       <c r="G54" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
       <c r="H54" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I54">
-        <v>0.0692</v>
+        <v>8</v>
       </c>
       <c r="J54">
-        <v>0.071968</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>0.06</v>
+      </c>
+      <c r="K54">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>726</v>
+        <v>300</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="E55" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="F55">
-        <v>737</v>
+        <v>397</v>
       </c>
       <c r="G55" t="s">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="H55" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I55">
-        <v>1.15</v>
+        <v>8</v>
       </c>
       <c r="J55">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>0.07140000000000001</v>
+      </c>
+      <c r="K55">
+        <v>0.07854000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>727</v>
+        <v>306</v>
       </c>
       <c r="C56" t="s">
         <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="E56" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="F56">
-        <v>738</v>
+        <v>404</v>
       </c>
       <c r="G56" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="H56" t="s">
-        <v>205</v>
+        <v>288</v>
       </c>
       <c r="I56">
-        <v>0.0518</v>
+        <v>4</v>
       </c>
       <c r="J56">
-        <v>0.05698</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>0.0104</v>
+      </c>
+      <c r="K56">
+        <v>0.0104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>731</v>
+        <v>311</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="E57" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="F57">
-        <v>742</v>
+        <v>409</v>
       </c>
       <c r="G57" t="s">
-        <v>180</v>
+        <v>253</v>
       </c>
       <c r="H57" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>0.02094404616</v>
+      </c>
+      <c r="K57">
+        <v>0.023038450776</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>771</v>
+        <v>318</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="E58" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="F58">
-        <v>782</v>
+        <v>418</v>
       </c>
       <c r="G58" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="H58" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I58">
-        <v>0.616</v>
+        <v>8</v>
       </c>
       <c r="J58">
-        <v>0.6776000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>0.2671999999999984</v>
+      </c>
+      <c r="K58">
+        <v>0.2752159999999984</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>787</v>
+        <v>327</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="F59">
-        <v>798</v>
+        <v>433</v>
       </c>
       <c r="G59" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="H59" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I59">
-        <v>0.065</v>
+        <v>9</v>
       </c>
       <c r="J59">
-        <v>0.065</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>0.011</v>
+      </c>
+      <c r="K59">
+        <v>0.01155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>810</v>
+        <v>329</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D60" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E60" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="F60">
-        <v>823</v>
+        <v>436</v>
       </c>
       <c r="G60" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H60" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I60">
-        <v>0.08799999999999999</v>
+        <v>9</v>
       </c>
       <c r="J60">
-        <v>0.08799999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>0.132</v>
+      </c>
+      <c r="K60">
+        <v>0.132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>820</v>
+        <v>339</v>
       </c>
       <c r="C61" t="s">
         <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="F61">
-        <v>833</v>
+        <v>454</v>
       </c>
       <c r="G61" t="s">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="H61" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I61">
-        <v>0.09349901050000001</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>0.10284891155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>0.3778231480000001</v>
+      </c>
+      <c r="K61">
+        <v>0.3778231480000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>825</v>
+        <v>347</v>
       </c>
       <c r="C62" t="s">
         <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="E62" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="F62">
-        <v>838</v>
+        <v>466</v>
       </c>
       <c r="G62" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="H62" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I62">
-        <v>3.228</v>
+        <v>9</v>
       </c>
       <c r="J62">
-        <v>3.32484</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>0.05020907656</v>
+      </c>
+      <c r="K62">
+        <v>0.0522174396224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>852</v>
+        <v>365</v>
       </c>
       <c r="C63" t="s">
         <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="E63" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="F63">
-        <v>865</v>
+        <v>493</v>
       </c>
       <c r="G63" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H63" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>0.48733211304</v>
+      </c>
+      <c r="K63">
+        <v>0.536065324344</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>855</v>
+        <v>368</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E64" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="F64">
-        <v>868</v>
+        <v>502</v>
       </c>
       <c r="G64" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="H64" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="I64">
-        <v>0.0104</v>
+        <v>9</v>
       </c>
       <c r="J64">
-        <v>0.0104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>0.0102573822</v>
+      </c>
+      <c r="K64">
+        <v>0.0102573822</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>897</v>
+        <v>370</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E65" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="F65">
-        <v>913</v>
+        <v>504</v>
       </c>
       <c r="G65" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="H65" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="I65">
-        <v>0.152</v>
+        <v>4</v>
       </c>
       <c r="J65">
-        <v>0.152</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>0.01561299904</v>
+      </c>
+      <c r="K65">
+        <v>0.01561299904</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>910</v>
+        <v>393</v>
       </c>
       <c r="C66" t="s">
         <v>63</v>
       </c>
       <c r="D66" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E66" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="F66">
-        <v>926</v>
+        <v>531</v>
       </c>
       <c r="G66" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="H66" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I66">
-        <v>0.5372</v>
+        <v>7</v>
       </c>
       <c r="J66">
-        <v>0.5586880000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>918</v>
+        <v>399</v>
       </c>
       <c r="C67" t="s">
         <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="F67">
-        <v>935</v>
+        <v>541</v>
       </c>
       <c r="G67" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="H67" t="s">
-        <v>205</v>
+        <v>292</v>
       </c>
       <c r="I67">
-        <v>0.073</v>
+        <v>4</v>
       </c>
       <c r="J67">
-        <v>0.07665</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+        <v>0.0285420538</v>
+      </c>
+      <c r="K67">
+        <v>0.029683735952</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>923</v>
+        <v>401</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="E68" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="F68">
-        <v>940</v>
+        <v>544</v>
       </c>
       <c r="G68" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="H68" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I68">
-        <v>0.3096</v>
+        <v>8</v>
       </c>
       <c r="J68">
-        <v>0.3096</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>0.08119999999999999</v>
+      </c>
+      <c r="K68">
+        <v>0.08932</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>931</v>
+        <v>411</v>
       </c>
       <c r="C69" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D69" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="E69" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="F69">
-        <v>948</v>
+        <v>560</v>
       </c>
       <c r="G69" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="H69" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="I69">
-        <v>0.3796</v>
+        <v>9</v>
       </c>
       <c r="J69">
-        <v>0.394784</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+        <v>0.0110899231</v>
+      </c>
+      <c r="K69">
+        <v>0.01219891541</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>944</v>
+        <v>434</v>
       </c>
       <c r="C70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D70" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="E70" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="F70">
-        <v>962</v>
+        <v>584</v>
       </c>
       <c r="G70" t="s">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="H70" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="I70">
-        <v>0.206999999999999</v>
+        <v>9</v>
       </c>
       <c r="J70">
-        <v>0.2276999999999989</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>0.048</v>
+      </c>
+      <c r="K70">
+        <v>0.04944</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>946</v>
+        <v>438</v>
       </c>
       <c r="C71" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="E71" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="F71">
-        <v>964</v>
+        <v>592</v>
       </c>
       <c r="G71" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="H71" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="I71">
-        <v>0.1272</v>
+        <v>9</v>
       </c>
       <c r="J71">
-        <v>0.13992</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>948</v>
+        <v>442</v>
       </c>
       <c r="C72" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D72" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="E72" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="F72">
-        <v>966</v>
+        <v>598</v>
       </c>
       <c r="G72" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="H72" t="s">
-        <v>205</v>
+        <v>288</v>
       </c>
       <c r="I72">
-        <v>0.096</v>
+        <v>4</v>
       </c>
       <c r="J72">
-        <v>0.1056</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>954</v>
+        <v>443</v>
       </c>
       <c r="C73" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D73" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="F73">
-        <v>972</v>
+        <v>599</v>
       </c>
       <c r="G73" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="H73" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="I73">
-        <v>0.0029476294</v>
+        <v>7</v>
       </c>
       <c r="J73">
-        <v>0.003065534576</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+        <v>0.023</v>
+      </c>
+      <c r="K73">
+        <v>0.02415</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>961</v>
+        <v>447</v>
       </c>
       <c r="C74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D74" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E74" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="F74">
-        <v>979</v>
+        <v>604</v>
       </c>
       <c r="G74" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="H74" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I74">
-        <v>0.159</v>
+        <v>9</v>
       </c>
       <c r="J74">
-        <v>0.159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>0.241</v>
+      </c>
+      <c r="K74">
+        <v>0.241</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>963</v>
+        <v>474</v>
       </c>
       <c r="C75" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D75" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="E75" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="F75">
-        <v>981</v>
+        <v>642</v>
       </c>
       <c r="G75" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="H75" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="I75">
-        <v>0.202</v>
+        <v>5</v>
       </c>
       <c r="J75">
-        <v>0.202</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>0.096</v>
+      </c>
+      <c r="K75">
+        <v>0.09888000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>985</v>
+        <v>496</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D76" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F76">
-        <v>1003</v>
+        <v>671</v>
       </c>
       <c r="G76" t="s">
-        <v>151</v>
+        <v>265</v>
       </c>
       <c r="H76" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="I76">
-        <v>0.005050934559999999</v>
+        <v>8</v>
       </c>
       <c r="J76">
-        <v>0.005050934559999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>0.1212</v>
+      </c>
+      <c r="K76">
+        <v>0.13332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>986</v>
+        <v>506</v>
       </c>
       <c r="C77" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D77" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E77" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="F77">
-        <v>1004</v>
+        <v>690</v>
       </c>
       <c r="G77" t="s">
-        <v>162</v>
+        <v>266</v>
       </c>
       <c r="H77" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="I77">
-        <v>0.0184</v>
+        <v>3</v>
       </c>
       <c r="J77">
-        <v>0.0184</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>0.335</v>
+      </c>
+      <c r="K77">
+        <v>0.335</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>993</v>
+        <v>517</v>
       </c>
       <c r="C78" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D78" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="E78" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="F78">
-        <v>1012</v>
+        <v>701</v>
       </c>
       <c r="G78" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="H78" t="s">
-        <v>205</v>
+        <v>288</v>
       </c>
       <c r="I78">
-        <v>0.05875660992</v>
+        <v>4</v>
       </c>
       <c r="J78">
-        <v>0.06463227091200001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>0.00346702552</v>
+      </c>
+      <c r="K78">
+        <v>0.00346702552</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1000</v>
+        <v>521</v>
       </c>
       <c r="C79" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" t="s">
+        <v>102</v>
+      </c>
+      <c r="E79" t="s">
+        <v>180</v>
+      </c>
+      <c r="F79">
+        <v>706</v>
+      </c>
+      <c r="G79" t="s">
+        <v>267</v>
+      </c>
+      <c r="H79" t="s">
+        <v>290</v>
+      </c>
+      <c r="I79">
+        <v>7</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>529</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
+        <v>102</v>
+      </c>
+      <c r="E80" t="s">
+        <v>181</v>
+      </c>
+      <c r="F80">
+        <v>716</v>
+      </c>
+      <c r="G80" t="s">
+        <v>225</v>
+      </c>
+      <c r="H80" t="s">
+        <v>288</v>
+      </c>
+      <c r="I80">
+        <v>4</v>
+      </c>
+      <c r="J80">
+        <v>0.016</v>
+      </c>
+      <c r="K80">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>534</v>
+      </c>
+      <c r="C81" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" t="s">
+        <v>102</v>
+      </c>
+      <c r="E81" t="s">
+        <v>182</v>
+      </c>
+      <c r="F81">
+        <v>721</v>
+      </c>
+      <c r="G81" t="s">
+        <v>219</v>
+      </c>
+      <c r="H81" t="s">
+        <v>288</v>
+      </c>
+      <c r="I81">
+        <v>4</v>
+      </c>
+      <c r="J81">
+        <v>0.009787518240000001</v>
+      </c>
+      <c r="K81">
+        <v>0.009787518240000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>543</v>
+      </c>
+      <c r="C82" t="s">
         <v>74</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D82" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" t="s">
+        <v>183</v>
+      </c>
+      <c r="F82">
+        <v>733</v>
+      </c>
+      <c r="G82" t="s">
+        <v>213</v>
+      </c>
+      <c r="H82" t="s">
+        <v>288</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>0.01085</v>
+      </c>
+      <c r="K82">
+        <v>0.01085</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>546</v>
+      </c>
+      <c r="C83" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" t="s">
+        <v>102</v>
+      </c>
+      <c r="E83" t="s">
+        <v>175</v>
+      </c>
+      <c r="F83">
+        <v>737</v>
+      </c>
+      <c r="G83" t="s">
+        <v>238</v>
+      </c>
+      <c r="H83" t="s">
+        <v>290</v>
+      </c>
+      <c r="I83">
+        <v>9</v>
+      </c>
+      <c r="J83">
+        <v>1.15</v>
+      </c>
+      <c r="K83">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>564</v>
+      </c>
+      <c r="C84" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84" t="s">
+        <v>102</v>
+      </c>
+      <c r="E84" t="s">
+        <v>184</v>
+      </c>
+      <c r="F84">
+        <v>767</v>
+      </c>
+      <c r="G84" t="s">
+        <v>268</v>
+      </c>
+      <c r="H84" t="s">
+        <v>289</v>
+      </c>
+      <c r="I84">
+        <v>9</v>
+      </c>
+      <c r="J84">
+        <v>0.02032057885</v>
+      </c>
+      <c r="K84">
+        <v>0.02032057885</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>574</v>
+      </c>
+      <c r="C85" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" t="s">
+        <v>185</v>
+      </c>
+      <c r="F85">
+        <v>782</v>
+      </c>
+      <c r="G85" t="s">
+        <v>269</v>
+      </c>
+      <c r="H85" t="s">
+        <v>290</v>
+      </c>
+      <c r="I85">
+        <v>3</v>
+      </c>
+      <c r="J85">
+        <v>0.616</v>
+      </c>
+      <c r="K85">
+        <v>0.6776000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>575</v>
+      </c>
+      <c r="C86" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86" t="s">
+        <v>186</v>
+      </c>
+      <c r="F86">
+        <v>783</v>
+      </c>
+      <c r="G86" t="s">
+        <v>227</v>
+      </c>
+      <c r="H86" t="s">
+        <v>290</v>
+      </c>
+      <c r="I86">
+        <v>9</v>
+      </c>
+      <c r="J86">
+        <v>0.7712</v>
+      </c>
+      <c r="K86">
+        <v>0.802048</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>584</v>
+      </c>
+      <c r="C87" t="s">
         <v>78</v>
       </c>
-      <c r="E79" t="s">
-        <v>149</v>
-      </c>
-      <c r="F79">
-        <v>1019</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="D87" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87" t="s">
+        <v>145</v>
+      </c>
+      <c r="F87">
+        <v>798</v>
+      </c>
+      <c r="G87" t="s">
+        <v>270</v>
+      </c>
+      <c r="H87" t="s">
+        <v>290</v>
+      </c>
+      <c r="I87">
+        <v>5</v>
+      </c>
+      <c r="J87">
+        <v>0.065</v>
+      </c>
+      <c r="K87">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>590</v>
+      </c>
+      <c r="C88" t="s">
+        <v>79</v>
+      </c>
+      <c r="D88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E88" t="s">
+        <v>187</v>
+      </c>
+      <c r="F88">
+        <v>805</v>
+      </c>
+      <c r="G88" t="s">
+        <v>271</v>
+      </c>
+      <c r="H88" t="s">
+        <v>290</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0.0232</v>
+      </c>
+      <c r="K88">
+        <v>0.0232</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>601</v>
+      </c>
+      <c r="C89" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89" t="s">
+        <v>102</v>
+      </c>
+      <c r="E89" t="s">
+        <v>188</v>
+      </c>
+      <c r="F89">
+        <v>822</v>
+      </c>
+      <c r="G89" t="s">
+        <v>272</v>
+      </c>
+      <c r="H89" t="s">
+        <v>288</v>
+      </c>
+      <c r="I89">
+        <v>4</v>
+      </c>
+      <c r="J89">
+        <v>0.11</v>
+      </c>
+      <c r="K89">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>602</v>
+      </c>
+      <c r="C90" t="s">
+        <v>81</v>
+      </c>
+      <c r="D90" t="s">
+        <v>102</v>
+      </c>
+      <c r="E90" t="s">
+        <v>189</v>
+      </c>
+      <c r="F90">
+        <v>823</v>
+      </c>
+      <c r="G90" t="s">
+        <v>266</v>
+      </c>
+      <c r="H90" t="s">
+        <v>290</v>
+      </c>
+      <c r="I90">
+        <v>3</v>
+      </c>
+      <c r="J90">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="K90">
+        <v>0.08799999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>604</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" t="s">
+        <v>102</v>
+      </c>
+      <c r="E91" t="s">
+        <v>190</v>
+      </c>
+      <c r="F91">
+        <v>825</v>
+      </c>
+      <c r="G91" t="s">
+        <v>214</v>
+      </c>
+      <c r="H91" t="s">
+        <v>288</v>
+      </c>
+      <c r="I91">
+        <v>4</v>
+      </c>
+      <c r="J91">
+        <v>0.01645369992</v>
+      </c>
+      <c r="K91">
+        <v>0.01645369992</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>606</v>
+      </c>
+      <c r="C92" t="s">
+        <v>82</v>
+      </c>
+      <c r="D92" t="s">
+        <v>102</v>
+      </c>
+      <c r="E92" t="s">
+        <v>191</v>
+      </c>
+      <c r="F92">
+        <v>828</v>
+      </c>
+      <c r="G92" t="s">
+        <v>273</v>
+      </c>
+      <c r="H92" t="s">
+        <v>289</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>0.0641806832</v>
+      </c>
+      <c r="K92">
+        <v>0.0641806832</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>611</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" t="s">
+        <v>192</v>
+      </c>
+      <c r="F93">
+        <v>833</v>
+      </c>
+      <c r="G93" t="s">
+        <v>247</v>
+      </c>
+      <c r="H93" t="s">
+        <v>290</v>
+      </c>
+      <c r="I93">
+        <v>8</v>
+      </c>
+      <c r="J93">
+        <v>0.09349901050000001</v>
+      </c>
+      <c r="K93">
+        <v>0.10284891155</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>615</v>
+      </c>
+      <c r="C94" t="s">
+        <v>83</v>
+      </c>
+      <c r="D94" t="s">
+        <v>102</v>
+      </c>
+      <c r="E94" t="s">
+        <v>193</v>
+      </c>
+      <c r="F94">
+        <v>839</v>
+      </c>
+      <c r="G94" t="s">
+        <v>220</v>
+      </c>
+      <c r="H94" t="s">
+        <v>290</v>
+      </c>
+      <c r="I94">
+        <v>9</v>
+      </c>
+      <c r="J94">
+        <v>0.23</v>
+      </c>
+      <c r="K94">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>618</v>
+      </c>
+      <c r="C95" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" t="s">
+        <v>105</v>
+      </c>
+      <c r="E95" t="s">
+        <v>194</v>
+      </c>
+      <c r="F95">
+        <v>842</v>
+      </c>
+      <c r="G95" t="s">
+        <v>274</v>
+      </c>
+      <c r="H95" t="s">
+        <v>290</v>
+      </c>
+      <c r="I95">
+        <v>5</v>
+      </c>
+      <c r="J95">
+        <v>0.0698443922799996</v>
+      </c>
+      <c r="K95">
+        <v>0.07263816797119958</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>629</v>
+      </c>
+      <c r="C96" t="s">
+        <v>85</v>
+      </c>
+      <c r="D96" t="s">
+        <v>105</v>
+      </c>
+      <c r="E96" t="s">
+        <v>195</v>
+      </c>
+      <c r="F96">
+        <v>856</v>
+      </c>
+      <c r="G96" t="s">
+        <v>260</v>
+      </c>
+      <c r="H96" t="s">
+        <v>289</v>
+      </c>
+      <c r="I96">
+        <v>9</v>
+      </c>
+      <c r="J96">
+        <v>0.12381497048</v>
+      </c>
+      <c r="K96">
+        <v>0.1287675692992</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>637</v>
+      </c>
+      <c r="C97" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" t="s">
+        <v>102</v>
+      </c>
+      <c r="E97" t="s">
+        <v>196</v>
+      </c>
+      <c r="F97">
+        <v>865</v>
+      </c>
+      <c r="G97" t="s">
+        <v>275</v>
+      </c>
+      <c r="H97" t="s">
+        <v>290</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>638</v>
+      </c>
+      <c r="C98" t="s">
+        <v>55</v>
+      </c>
+      <c r="D98" t="s">
+        <v>102</v>
+      </c>
+      <c r="E98" t="s">
+        <v>159</v>
+      </c>
+      <c r="F98">
+        <v>868</v>
+      </c>
+      <c r="G98" t="s">
+        <v>276</v>
+      </c>
+      <c r="H98" t="s">
+        <v>288</v>
+      </c>
+      <c r="I98">
+        <v>4</v>
+      </c>
+      <c r="J98">
+        <v>0.0104</v>
+      </c>
+      <c r="K98">
+        <v>0.0104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>642</v>
+      </c>
+      <c r="C99" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99" t="s">
+        <v>102</v>
+      </c>
+      <c r="E99" t="s">
+        <v>197</v>
+      </c>
+      <c r="F99">
+        <v>875</v>
+      </c>
+      <c r="G99" t="s">
+        <v>277</v>
+      </c>
+      <c r="H99" t="s">
+        <v>288</v>
+      </c>
+      <c r="I99">
+        <v>4</v>
+      </c>
+      <c r="J99">
+        <v>0.0184788928</v>
+      </c>
+      <c r="K99">
+        <v>0.0184788928</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>660</v>
+      </c>
+      <c r="C100" t="s">
+        <v>87</v>
+      </c>
+      <c r="D100" t="s">
+        <v>102</v>
+      </c>
+      <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100">
+        <v>906</v>
+      </c>
+      <c r="G100" t="s">
+        <v>214</v>
+      </c>
+      <c r="H100" t="s">
+        <v>288</v>
+      </c>
+      <c r="I100">
+        <v>4</v>
+      </c>
+      <c r="J100">
+        <v>0.04059259392</v>
+      </c>
+      <c r="K100">
+        <v>0.04059259392</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>664</v>
+      </c>
+      <c r="C101" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" t="s">
+        <v>102</v>
+      </c>
+      <c r="E101" t="s">
+        <v>199</v>
+      </c>
+      <c r="F101">
+        <v>913</v>
+      </c>
+      <c r="G101" t="s">
+        <v>278</v>
+      </c>
+      <c r="H101" t="s">
+        <v>288</v>
+      </c>
+      <c r="I101">
+        <v>8</v>
+      </c>
+      <c r="J101">
+        <v>0.152</v>
+      </c>
+      <c r="K101">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>666</v>
+      </c>
+      <c r="C102" t="s">
+        <v>89</v>
+      </c>
+      <c r="D102" t="s">
+        <v>103</v>
+      </c>
+      <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102">
+        <v>917</v>
+      </c>
+      <c r="G102" t="s">
+        <v>279</v>
+      </c>
+      <c r="H102" t="s">
+        <v>290</v>
+      </c>
+      <c r="I102">
+        <v>8</v>
+      </c>
+      <c r="J102">
+        <v>0.18583115544</v>
+      </c>
+      <c r="K102">
+        <v>0.1914060901032</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>672</v>
+      </c>
+      <c r="C103" t="s">
+        <v>90</v>
+      </c>
+      <c r="D103" t="s">
+        <v>105</v>
+      </c>
+      <c r="E103" t="s">
+        <v>201</v>
+      </c>
+      <c r="F103">
+        <v>926</v>
+      </c>
+      <c r="G103" t="s">
+        <v>280</v>
+      </c>
+      <c r="H103" t="s">
+        <v>290</v>
+      </c>
+      <c r="I103">
+        <v>7</v>
+      </c>
+      <c r="J103">
+        <v>0.5372</v>
+      </c>
+      <c r="K103">
+        <v>0.5586880000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>676</v>
+      </c>
+      <c r="C104" t="s">
+        <v>91</v>
+      </c>
+      <c r="D104" t="s">
+        <v>105</v>
+      </c>
+      <c r="E104" t="s">
         <v>202</v>
       </c>
-      <c r="H79" t="s">
+      <c r="F104">
+        <v>931</v>
+      </c>
+      <c r="G104" t="s">
+        <v>281</v>
+      </c>
+      <c r="H104" t="s">
+        <v>290</v>
+      </c>
+      <c r="I104">
+        <v>8</v>
+      </c>
+      <c r="J104">
+        <v>0.0735375120399996</v>
+      </c>
+      <c r="K104">
+        <v>0.07647901252159958</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>679</v>
+      </c>
+      <c r="C105" t="s">
+        <v>92</v>
+      </c>
+      <c r="D105" t="s">
+        <v>102</v>
+      </c>
+      <c r="E105" t="s">
+        <v>20</v>
+      </c>
+      <c r="F105">
+        <v>937</v>
+      </c>
+      <c r="G105" t="s">
+        <v>225</v>
+      </c>
+      <c r="H105" t="s">
+        <v>288</v>
+      </c>
+      <c r="I105">
+        <v>4</v>
+      </c>
+      <c r="J105">
+        <v>0.0032</v>
+      </c>
+      <c r="K105">
+        <v>0.0032</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>681</v>
+      </c>
+      <c r="C106" t="s">
+        <v>93</v>
+      </c>
+      <c r="D106" t="s">
+        <v>102</v>
+      </c>
+      <c r="E106" t="s">
+        <v>203</v>
+      </c>
+      <c r="F106">
+        <v>940</v>
+      </c>
+      <c r="G106" t="s">
+        <v>282</v>
+      </c>
+      <c r="H106" t="s">
+        <v>290</v>
+      </c>
+      <c r="I106">
+        <v>5</v>
+      </c>
+      <c r="J106">
+        <v>0.3096</v>
+      </c>
+      <c r="K106">
+        <v>0.3096</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>692</v>
+      </c>
+      <c r="C107" t="s">
+        <v>94</v>
+      </c>
+      <c r="D107" t="s">
+        <v>105</v>
+      </c>
+      <c r="E107" t="s">
+        <v>204</v>
+      </c>
+      <c r="F107">
+        <v>956</v>
+      </c>
+      <c r="G107" t="s">
+        <v>283</v>
+      </c>
+      <c r="H107" t="s">
+        <v>288</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107">
+        <v>0.0532</v>
+      </c>
+      <c r="K107">
+        <v>0.055328</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>696</v>
+      </c>
+      <c r="C108" t="s">
+        <v>95</v>
+      </c>
+      <c r="D108" t="s">
+        <v>104</v>
+      </c>
+      <c r="E108" t="s">
         <v>205</v>
       </c>
-      <c r="I79">
-        <v>0.6467999999999959</v>
-      </c>
-      <c r="J79">
-        <v>0.6726719999999958</v>
+      <c r="F108">
+        <v>962</v>
+      </c>
+      <c r="G108" t="s">
+        <v>218</v>
+      </c>
+      <c r="H108" t="s">
+        <v>290</v>
+      </c>
+      <c r="I108">
+        <v>8</v>
+      </c>
+      <c r="J108">
+        <v>0.206999999999999</v>
+      </c>
+      <c r="K108">
+        <v>0.2276999999999989</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>697</v>
+      </c>
+      <c r="C109" t="s">
+        <v>96</v>
+      </c>
+      <c r="D109" t="s">
+        <v>36</v>
+      </c>
+      <c r="E109" t="s">
+        <v>206</v>
+      </c>
+      <c r="F109">
+        <v>964</v>
+      </c>
+      <c r="G109" t="s">
+        <v>284</v>
+      </c>
+      <c r="H109" t="s">
+        <v>290</v>
+      </c>
+      <c r="I109">
+        <v>6</v>
+      </c>
+      <c r="J109">
+        <v>0.1272</v>
+      </c>
+      <c r="K109">
+        <v>0.13992</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>698</v>
+      </c>
+      <c r="C110" t="s">
+        <v>97</v>
+      </c>
+      <c r="D110" t="s">
+        <v>36</v>
+      </c>
+      <c r="E110" t="s">
+        <v>207</v>
+      </c>
+      <c r="F110">
+        <v>966</v>
+      </c>
+      <c r="G110" t="s">
+        <v>249</v>
+      </c>
+      <c r="H110" t="s">
+        <v>290</v>
+      </c>
+      <c r="I110">
+        <v>8</v>
+      </c>
+      <c r="J110">
+        <v>0.096</v>
+      </c>
+      <c r="K110">
+        <v>0.1056</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>702</v>
+      </c>
+      <c r="C111" t="s">
+        <v>98</v>
+      </c>
+      <c r="D111" t="s">
+        <v>105</v>
+      </c>
+      <c r="E111" t="s">
+        <v>208</v>
+      </c>
+      <c r="F111">
+        <v>972</v>
+      </c>
+      <c r="G111" t="s">
+        <v>285</v>
+      </c>
+      <c r="H111" t="s">
+        <v>289</v>
+      </c>
+      <c r="I111">
+        <v>9</v>
+      </c>
+      <c r="J111">
+        <v>0.0029476294</v>
+      </c>
+      <c r="K111">
+        <v>0.003065534576</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>709</v>
+      </c>
+      <c r="C112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D112" t="s">
+        <v>102</v>
+      </c>
+      <c r="E112" t="s">
+        <v>209</v>
+      </c>
+      <c r="F112">
+        <v>979</v>
+      </c>
+      <c r="G112" t="s">
+        <v>286</v>
+      </c>
+      <c r="H112" t="s">
+        <v>290</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0.159</v>
+      </c>
+      <c r="K112">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>711</v>
+      </c>
+      <c r="C113" t="s">
+        <v>100</v>
+      </c>
+      <c r="D113" t="s">
+        <v>102</v>
+      </c>
+      <c r="E113" t="s">
+        <v>136</v>
+      </c>
+      <c r="F113">
+        <v>981</v>
+      </c>
+      <c r="G113" t="s">
+        <v>223</v>
+      </c>
+      <c r="H113" t="s">
+        <v>290</v>
+      </c>
+      <c r="I113">
+        <v>7</v>
+      </c>
+      <c r="J113">
+        <v>0.202</v>
+      </c>
+      <c r="K113">
+        <v>0.202</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>730</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>102</v>
+      </c>
+      <c r="E114" t="s">
+        <v>210</v>
+      </c>
+      <c r="F114">
+        <v>1003</v>
+      </c>
+      <c r="G114" t="s">
+        <v>214</v>
+      </c>
+      <c r="H114" t="s">
+        <v>288</v>
+      </c>
+      <c r="I114">
+        <v>4</v>
+      </c>
+      <c r="J114">
+        <v>0.005050934559999999</v>
+      </c>
+      <c r="K114">
+        <v>0.005050934559999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>737</v>
+      </c>
+      <c r="C115" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" t="s">
+        <v>102</v>
+      </c>
+      <c r="E115" t="s">
+        <v>211</v>
+      </c>
+      <c r="F115">
+        <v>1013</v>
+      </c>
+      <c r="G115" t="s">
+        <v>214</v>
+      </c>
+      <c r="H115" t="s">
+        <v>288</v>
+      </c>
+      <c r="I115">
+        <v>4</v>
+      </c>
+      <c r="J115">
+        <v>0.04792089424</v>
+      </c>
+      <c r="K115">
+        <v>0.04792089424</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>742</v>
+      </c>
+      <c r="C116" t="s">
+        <v>101</v>
+      </c>
+      <c r="D116" t="s">
+        <v>103</v>
+      </c>
+      <c r="E116" t="s">
+        <v>212</v>
+      </c>
+      <c r="F116">
+        <v>1018</v>
+      </c>
+      <c r="G116" t="s">
+        <v>287</v>
+      </c>
+      <c r="H116" t="s">
+        <v>289</v>
+      </c>
+      <c r="I116">
+        <v>9</v>
+      </c>
+      <c r="J116">
+        <v>0.06078848136000001</v>
+      </c>
+      <c r="K116">
+        <v>0.06261213580080001</v>
       </c>
     </row>
   </sheetData>
